--- a/Comcast.xlsx
+++ b/Comcast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D039ED56-3986-4713-ACF8-63F2D4837D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AFE6E8-BB4F-4093-BF59-47041EC0C3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00E1D296-373D-4463-9B4A-E1F7FE964624}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="DCF" sheetId="2" r:id="rId2"/>
     <sheet name="DDM" sheetId="3" r:id="rId3"/>
-    <sheet name="BONDS" sheetId="4" r:id="rId4"/>
+    <sheet name="BONDS &amp; DEBT" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="166">
   <si>
     <t>Ticker</t>
   </si>
@@ -436,21 +436,118 @@
     <t>Accrued Participation</t>
   </si>
   <si>
-    <t>Domestic Broad Band</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Domestic Wireless</t>
+  </si>
+  <si>
+    <t>Domestic Broadband</t>
+  </si>
+  <si>
+    <t>International Connectivity</t>
+  </si>
+  <si>
+    <t>Total Residential Connectivity</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total Residential Connectivity &amp; Platform Segment</t>
+  </si>
+  <si>
+    <t>Total Business Services Connectivity Segment</t>
+  </si>
+  <si>
+    <t>Domestic Advertising</t>
+  </si>
+  <si>
+    <t>Domestic Distribution</t>
+  </si>
+  <si>
+    <t>International Networks</t>
+  </si>
+  <si>
+    <t>Total Media Segment</t>
+  </si>
+  <si>
+    <t>Content Licensing</t>
+  </si>
+  <si>
+    <t>Theatrical</t>
+  </si>
+  <si>
+    <t>Total Studios Segment</t>
+  </si>
+  <si>
+    <t>Total Theme Parks Segment</t>
+  </si>
+  <si>
+    <t>Other Revenue</t>
+  </si>
+  <si>
+    <t>Eliminations</t>
+  </si>
+  <si>
+    <t>YEARLY DCF + EXPECTED CASH FLOWS</t>
+  </si>
+  <si>
+    <t>2025E</t>
+  </si>
+  <si>
+    <t>2026E</t>
+  </si>
+  <si>
+    <t>2027E</t>
+  </si>
+  <si>
+    <t>Y/Y FCF %</t>
+  </si>
+  <si>
+    <t>Total Y/Y Connectivity</t>
+  </si>
+  <si>
+    <t>Net Cash Y/Y %</t>
+  </si>
+  <si>
+    <t>PP&amp;E Y/Y %</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>Upside</t>
+  </si>
+  <si>
+    <t>Total Y/Y Revenue %</t>
+  </si>
+  <si>
+    <t>QUARTERLY DCF + EXPECTED CASH FLOWS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="#,##0.00,,,"/>
     <numFmt numFmtId="165" formatCode="#,##0.00,"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +574,14 @@
       <name val="Aptos Serif"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Serif"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -492,9 +597,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -504,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -525,6 +639,22 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1511,16 +1641,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA85608-79E9-43B1-81C0-965A3C96FCCA}">
-  <dimension ref="A1:J61"/>
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6780" topLeftCell="K1" activePane="topRight"/>
+      <selection pane="topRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="36.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1" customWidth="1"/>
@@ -1528,18 +1662,28 @@
     <col min="8" max="8" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="9.21875" style="14" customWidth="1"/>
+    <col min="12" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="U1" s="19"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <v>2017</v>
       </c>
@@ -1564,1577 +1708,2881 @@
       <c r="J3" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>22979</v>
+      </c>
+      <c r="H4" s="4">
+        <v>24469</v>
+      </c>
+      <c r="I4" s="4">
+        <v>25489</v>
+      </c>
+      <c r="J4" s="4">
+        <v>26228</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>2380</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3071</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3664</v>
+      </c>
+      <c r="J5" s="4">
+        <v>4273</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>3293</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3426</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4207</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4854</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <f t="shared" ref="G7:M7" si="0">SUM(G4:G6)</f>
+        <v>28652</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>30966</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>33360</v>
+      </c>
+      <c r="J7" s="4">
+        <f>SUM(J4:J6)</f>
+        <v>35355</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="22">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <f>(H7/G7)-1</f>
+        <v>8.076225045372043E-2</v>
+      </c>
+      <c r="I8" s="22">
+        <f>(I7/H7)-1</f>
+        <v>7.7310598721177959E-2</v>
+      </c>
+      <c r="J8" s="22">
+        <f>(J7/I7)-1</f>
+        <v>5.9802158273381201E-2</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>32440</v>
+      </c>
+      <c r="H9" s="4">
+        <v>30496</v>
+      </c>
+      <c r="I9" s="4">
+        <v>28797</v>
+      </c>
+      <c r="J9" s="4">
+        <v>26872</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>4507</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4546</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3969</v>
+      </c>
+      <c r="J10" s="4">
+        <v>4089</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>7095</v>
+      </c>
+      <c r="H11" s="4">
+        <v>6378</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5820</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5259</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <f>SUM(G7:G11)</f>
+        <v>72694</v>
+      </c>
+      <c r="H12" s="4">
+        <f>SUM(H7:H11)</f>
+        <v>72386.080762250451</v>
+      </c>
+      <c r="I12" s="4">
+        <f>SUM(I7:I11)</f>
+        <v>71946.077310598717</v>
+      </c>
+      <c r="J12" s="4">
+        <f>SUM(J7:J11)</f>
+        <v>71575.05980215827</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" ref="K12:M12" si="1">SUM(K7:K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>8056</v>
+      </c>
+      <c r="H13" s="4">
+        <v>8819</v>
+      </c>
+      <c r="I13" s="4">
+        <v>9255</v>
+      </c>
+      <c r="J13" s="4">
+        <v>9701</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <v>10177</v>
+      </c>
+      <c r="H14" s="4">
+        <v>10360</v>
+      </c>
+      <c r="I14" s="4">
+        <v>8600</v>
+      </c>
+      <c r="J14" s="4">
+        <v>10008</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>10080</v>
+      </c>
+      <c r="H15" s="4">
+        <v>10525</v>
+      </c>
+      <c r="I15" s="4">
+        <v>10663</v>
+      </c>
+      <c r="J15" s="4">
+        <v>11826</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <v>5060</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3729</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4109</v>
+      </c>
+      <c r="J16" s="4">
+        <v>4282</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <v>2090</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2105</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1983</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2031</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <f t="shared" ref="G18:H18" si="2">SUM(G14:G17)</f>
+        <v>27407</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="2"/>
+        <v>26719</v>
+      </c>
+      <c r="I18" s="4">
+        <f>SUM(I14:I17)</f>
+        <v>25355</v>
+      </c>
+      <c r="J18" s="4">
+        <f>SUM(J14:J17)</f>
+        <v>28147</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" ref="K18:M18" si="3">SUM(K14:K17)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>8193</v>
+      </c>
+      <c r="H19" s="4">
+        <v>9348</v>
+      </c>
+      <c r="I19" s="4">
+        <v>8231</v>
+      </c>
+      <c r="J19" s="4">
+        <v>8063</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <v>691</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1607</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2079</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1693</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
+        <v>1193</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1302</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1315</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1335</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <f t="shared" ref="G22:I22" si="4">SUM(G19:G21)</f>
+        <v>10077</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="4"/>
+        <v>12257</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="4"/>
+        <v>11625</v>
+      </c>
+      <c r="J22" s="4">
+        <f>SUM(J19:J21)</f>
+        <v>11091</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" ref="K22:M22" si="5">SUM(K19:K21)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>5051</v>
+      </c>
+      <c r="H23" s="4">
+        <v>7541</v>
+      </c>
+      <c r="I23" s="4">
+        <v>8947</v>
+      </c>
+      <c r="J23" s="4">
+        <v>8617</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
+        <v>87</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2737</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2827</v>
+      </c>
+      <c r="J24" s="4">
+        <v>2982</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <v>-3048</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-9032</v>
+      </c>
+      <c r="I25" s="4">
+        <v>-8383</v>
+      </c>
+      <c r="J25" s="4">
+        <v>-8383</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C26" s="20">
         <v>85029</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D26" s="20">
         <v>94507</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E26" s="20">
         <v>108942</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F26" s="20">
         <v>103564</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G26" s="20">
         <v>116385</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H26" s="20">
         <v>121427</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I26" s="20">
         <v>121572</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J26" s="20">
         <v>123731</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="K26" s="21">
+        <v>85029</v>
+      </c>
+      <c r="L26" s="20">
+        <v>85029</v>
+      </c>
+      <c r="M26" s="20">
+        <v>85029</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="26">
+        <v>0</v>
+      </c>
+      <c r="D27" s="26">
+        <f>(D26/C26)-1</f>
+        <v>0.11146785214456245</v>
+      </c>
+      <c r="E27" s="26">
+        <f>(E26/D26)-1</f>
+        <v>0.15274000867660598</v>
+      </c>
+      <c r="F27" s="26">
+        <f>(F26/E26)-1</f>
+        <v>-4.9365717537772413E-2</v>
+      </c>
+      <c r="G27" s="26">
+        <f>(G26/F26)-1</f>
+        <v>0.12379784481093825</v>
+      </c>
+      <c r="H27" s="26">
+        <f>(H26/G26)-1</f>
+        <v>4.3321733900416826E-2</v>
+      </c>
+      <c r="I27" s="26">
+        <f>(I26/H26)-1</f>
+        <v>1.1941331005460576E-3</v>
+      </c>
+      <c r="J27" s="26">
+        <f>(J26/I26)-1</f>
+        <v>1.775902345934921E-2</v>
+      </c>
+      <c r="K27" s="27">
+        <f>(K26/J26)-1</f>
+        <v>-0.31279145889065796</v>
+      </c>
+      <c r="L27" s="26">
+        <f>(L26/K26)-1</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="26">
+        <f>(M26/L26)-1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C28" s="4">
         <v>25355</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D28" s="4">
         <v>29692</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E28" s="4">
         <v>34440</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F28" s="4">
         <v>33121</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G28" s="4">
         <v>38450</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H28" s="4">
         <v>38213</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I28" s="4">
         <v>36762</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J28" s="4">
         <v>37026</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="K28" s="15">
+        <v>25355</v>
+      </c>
+      <c r="L28" s="4">
+        <v>25355</v>
+      </c>
+      <c r="M28" s="4">
+        <v>25355</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C29" s="4">
         <v>25449</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D29" s="4">
         <v>28094</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E29" s="4">
         <v>32807</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F29" s="4">
         <v>33109</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G29" s="4">
         <v>35619</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H29" s="4">
         <v>38263</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I29" s="4">
         <v>7971</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J29" s="4">
         <v>8073</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="K29" s="15">
+        <v>25449</v>
+      </c>
+      <c r="L29" s="4">
+        <v>25449</v>
+      </c>
+      <c r="M29" s="4">
+        <v>25449</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C30" s="4">
         <v>6519</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D30" s="4">
         <v>7036</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E30" s="4">
         <v>7617</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F30" s="4">
         <v>6741</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G30" s="4">
         <v>7695</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H30" s="4">
         <v>8506</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I30" s="4">
         <v>39190</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J30" s="4">
         <v>40533</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="K30" s="15">
+        <v>6519</v>
+      </c>
+      <c r="L30" s="4">
+        <v>6519</v>
+      </c>
+      <c r="M30" s="4">
+        <v>6519</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C31" s="4">
         <v>7914</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D31" s="4">
         <v>8281</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E31" s="4">
         <v>8663</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F31" s="4">
         <v>8320</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G31" s="4">
         <v>8628</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H31" s="4">
         <v>8724</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I31" s="4">
         <v>8854</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J31" s="4">
         <v>8729</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="K31" s="15">
+        <v>7914</v>
+      </c>
+      <c r="L31" s="4">
+        <v>7914</v>
+      </c>
+      <c r="M31" s="4">
+        <v>7914</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C32" s="4">
         <v>2216</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D32" s="4">
         <v>2736</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E32" s="4">
         <v>4290</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F32" s="4">
         <v>4780</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G32" s="4">
         <v>5176</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H32" s="4">
         <v>5097</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I32" s="4">
         <v>5482</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J32" s="4">
         <v>6072</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="K32" s="15">
+        <v>2216</v>
+      </c>
+      <c r="L32" s="4">
+        <v>2216</v>
+      </c>
+      <c r="M32" s="4">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C33" s="4">
         <v>-442</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D33" s="4">
         <v>-341</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
         <v>8583</v>
       </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-442</v>
+      </c>
+      <c r="L33" s="4">
+        <v>-442</v>
+      </c>
+      <c r="M33" s="4">
+        <v>-442</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="4">
-        <f t="shared" ref="C17:J17" si="0">SUM(C11:C16)</f>
+      <c r="C34" s="4">
+        <f t="shared" ref="C34:J34" si="6">SUM(C28:C33)</f>
         <v>67011</v>
       </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
+      <c r="D34" s="4">
+        <f t="shared" si="6"/>
         <v>75498</v>
       </c>
-      <c r="E17" s="4">
-        <f>SUM(E11:E16)</f>
+      <c r="E34" s="4">
+        <f>SUM(E28:E33)</f>
         <v>87817</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" si="0"/>
+      <c r="F34" s="4">
+        <f t="shared" si="6"/>
         <v>86071</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" si="0"/>
+      <c r="G34" s="4">
+        <f t="shared" si="6"/>
         <v>95568</v>
       </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
+      <c r="H34" s="4">
+        <f t="shared" si="6"/>
         <v>107386</v>
       </c>
-      <c r="I17" s="4">
-        <f t="shared" si="0"/>
+      <c r="I34" s="4">
+        <f t="shared" si="6"/>
         <v>98259</v>
       </c>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
+      <c r="J34" s="4">
+        <f t="shared" si="6"/>
         <v>100433</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+      <c r="K34" s="15">
+        <f t="shared" ref="K34:M34" si="7">SUM(K28:K33)</f>
+        <v>67011</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="7"/>
+        <v>67011</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="7"/>
+        <v>67011</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="4">
-        <f t="shared" ref="C18:J18" si="1">C10-C17</f>
+      <c r="C35" s="4">
+        <f t="shared" ref="C35:J35" si="8">C26-C34</f>
         <v>18018</v>
       </c>
-      <c r="D18" s="4">
-        <f t="shared" si="1"/>
+      <c r="D35" s="4">
+        <f t="shared" si="8"/>
         <v>19009</v>
       </c>
-      <c r="E18" s="4">
-        <f t="shared" si="1"/>
+      <c r="E35" s="4">
+        <f t="shared" si="8"/>
         <v>21125</v>
       </c>
-      <c r="F18" s="4">
-        <f t="shared" si="1"/>
+      <c r="F35" s="4">
+        <f t="shared" si="8"/>
         <v>17493</v>
       </c>
-      <c r="G18" s="4">
-        <f t="shared" si="1"/>
+      <c r="G35" s="4">
+        <f t="shared" si="8"/>
         <v>20817</v>
       </c>
-      <c r="H18" s="4">
-        <f t="shared" si="1"/>
+      <c r="H35" s="4">
+        <f t="shared" si="8"/>
         <v>14041</v>
       </c>
-      <c r="I18" s="4">
-        <f t="shared" si="1"/>
+      <c r="I35" s="4">
+        <f t="shared" si="8"/>
         <v>23313</v>
       </c>
-      <c r="J18" s="4">
-        <f t="shared" si="1"/>
+      <c r="J35" s="4">
+        <f t="shared" si="8"/>
         <v>23298</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+      <c r="K35" s="15">
+        <f t="shared" ref="K35:M35" si="9">K26-K34</f>
+        <v>18018</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="9"/>
+        <v>18018</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="9"/>
+        <v>18018</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C36" s="4">
         <v>-3086</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D36" s="4">
         <v>-3542</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E36" s="4">
         <v>-4567</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F36" s="4">
         <v>-4588</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G36" s="4">
         <v>-4281</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H36" s="4">
         <v>-3896</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I36" s="4">
         <v>-4087</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J36" s="4">
         <v>-4134</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+      <c r="K36" s="15">
+        <v>-3086</v>
+      </c>
+      <c r="L36" s="4">
+        <v>-3086</v>
+      </c>
+      <c r="M36" s="4">
+        <v>-3086</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C37" s="4">
         <v>421</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D37" s="4">
         <v>-225</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E37" s="4">
         <v>438</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F37" s="4">
         <v>1160</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G37" s="4">
         <v>2557</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H37" s="4">
         <v>-861</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I37" s="4">
         <v>1252</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J37" s="4">
         <v>-490</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
+      <c r="K37" s="15">
+        <v>421</v>
+      </c>
+      <c r="L37" s="4">
+        <v>421</v>
+      </c>
+      <c r="M37" s="4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="4">
-        <f t="shared" ref="C21:J21" si="2">SUM(C18:C20)</f>
+      <c r="C38" s="4">
+        <f t="shared" ref="C38:J38" si="10">SUM(C35:C37)</f>
         <v>15353</v>
       </c>
-      <c r="D21" s="4">
-        <f t="shared" si="2"/>
+      <c r="D38" s="4">
+        <f t="shared" si="10"/>
         <v>15242</v>
       </c>
-      <c r="E21" s="4">
-        <f t="shared" si="2"/>
+      <c r="E38" s="4">
+        <f t="shared" si="10"/>
         <v>16996</v>
       </c>
-      <c r="F21" s="4">
-        <f t="shared" si="2"/>
+      <c r="F38" s="4">
+        <f t="shared" si="10"/>
         <v>14065</v>
       </c>
-      <c r="G21" s="4">
-        <f t="shared" si="2"/>
+      <c r="G38" s="4">
+        <f t="shared" si="10"/>
         <v>19093</v>
       </c>
-      <c r="H21" s="4">
-        <f t="shared" si="2"/>
+      <c r="H38" s="4">
+        <f t="shared" si="10"/>
         <v>9284</v>
       </c>
-      <c r="I21" s="4">
-        <f t="shared" si="2"/>
+      <c r="I38" s="4">
+        <f t="shared" si="10"/>
         <v>20478</v>
       </c>
-      <c r="J21" s="4">
-        <f t="shared" si="2"/>
+      <c r="J38" s="4">
+        <f t="shared" si="10"/>
         <v>18674</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+      <c r="K38" s="15">
+        <f t="shared" ref="K38:M38" si="11">SUM(K35:K37)</f>
+        <v>15353</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="11"/>
+        <v>15353</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="11"/>
+        <v>15353</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C39" s="4">
         <v>-7569</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D39" s="4">
         <v>3380</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E39" s="4">
         <v>3673</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F39" s="4">
         <v>3364</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G39" s="4">
         <v>5259</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H39" s="4">
         <v>4359</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I39" s="4">
         <v>5371</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J39" s="4">
         <v>2796</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
+      <c r="K39" s="15">
+        <v>-7569</v>
+      </c>
+      <c r="L39" s="4">
+        <v>-7569</v>
+      </c>
+      <c r="M39" s="4">
+        <v>-7569</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="4">
-        <f t="shared" ref="C23:J23" si="3">C21-C22</f>
+      <c r="C40" s="4">
+        <f t="shared" ref="C40:J40" si="12">C38-C39</f>
         <v>22922</v>
       </c>
-      <c r="D23" s="4">
-        <f t="shared" si="3"/>
+      <c r="D40" s="4">
+        <f t="shared" si="12"/>
         <v>11862</v>
       </c>
-      <c r="E23" s="4">
-        <f t="shared" si="3"/>
+      <c r="E40" s="4">
+        <f t="shared" si="12"/>
         <v>13323</v>
       </c>
-      <c r="F23" s="4">
-        <f t="shared" si="3"/>
+      <c r="F40" s="4">
+        <f t="shared" si="12"/>
         <v>10701</v>
       </c>
-      <c r="G23" s="4">
-        <f t="shared" si="3"/>
+      <c r="G40" s="4">
+        <f t="shared" si="12"/>
         <v>13834</v>
       </c>
-      <c r="H23" s="4">
-        <f t="shared" si="3"/>
+      <c r="H40" s="4">
+        <f t="shared" si="12"/>
         <v>4925</v>
       </c>
-      <c r="I23" s="4">
-        <f t="shared" si="3"/>
+      <c r="I40" s="4">
+        <f t="shared" si="12"/>
         <v>15107</v>
       </c>
-      <c r="J23" s="4">
-        <f t="shared" si="3"/>
+      <c r="J40" s="4">
+        <f t="shared" si="12"/>
         <v>15878</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+      <c r="K40" s="15">
+        <f t="shared" ref="K40:M40" si="13">K38-K39</f>
+        <v>22922</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="13"/>
+        <v>22922</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="13"/>
+        <v>22922</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C41" s="4">
         <v>187</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D41" s="4">
         <v>131</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E41" s="4">
         <v>266</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F41" s="4">
         <v>167</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G41" s="4">
         <v>-325</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H41" s="4">
         <v>-445</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I41" s="4">
         <v>-282</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J41" s="4">
         <v>-315</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
+      <c r="K41" s="15">
+        <v>187</v>
+      </c>
+      <c r="L41" s="4">
+        <v>187</v>
+      </c>
+      <c r="M41" s="4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="13">
-        <f t="shared" ref="C25:J25" si="4">C23-C24</f>
+      <c r="C42" s="13">
+        <f t="shared" ref="C42:J42" si="14">C40-C41</f>
         <v>22735</v>
       </c>
-      <c r="D25" s="13">
-        <f t="shared" si="4"/>
+      <c r="D42" s="13">
+        <f t="shared" si="14"/>
         <v>11731</v>
       </c>
-      <c r="E25" s="13">
-        <f t="shared" si="4"/>
+      <c r="E42" s="13">
+        <f t="shared" si="14"/>
         <v>13057</v>
       </c>
-      <c r="F25" s="13">
-        <f t="shared" si="4"/>
+      <c r="F42" s="13">
+        <f t="shared" si="14"/>
         <v>10534</v>
       </c>
-      <c r="G25" s="13">
-        <f t="shared" si="4"/>
+      <c r="G42" s="13">
+        <f t="shared" si="14"/>
         <v>14159</v>
       </c>
-      <c r="H25" s="13">
-        <f t="shared" si="4"/>
+      <c r="H42" s="13">
+        <f t="shared" si="14"/>
         <v>5370</v>
       </c>
-      <c r="I25" s="13">
-        <f t="shared" si="4"/>
+      <c r="I42" s="13">
+        <f t="shared" si="14"/>
         <v>15389</v>
       </c>
-      <c r="J25" s="13">
-        <f t="shared" si="4"/>
+      <c r="J42" s="13">
+        <f t="shared" si="14"/>
         <v>16193</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
+      <c r="K42" s="16">
+        <f t="shared" ref="K42:M42" si="15">K40-K41</f>
+        <v>22735</v>
+      </c>
+      <c r="L42" s="13">
+        <f t="shared" si="15"/>
+        <v>22735</v>
+      </c>
+      <c r="M42" s="13">
+        <f t="shared" si="15"/>
+        <v>22735</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C43" s="3">
         <v>4.83</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D43" s="3">
         <v>2.56</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E43" s="3">
         <v>2.87</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F43" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G43" s="3">
         <v>3.09</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H43" s="3">
         <v>1.22</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I43" s="3">
         <v>3.73</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J43" s="3">
         <v>4.17</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+      <c r="K43" s="17">
+        <v>4.83</v>
+      </c>
+      <c r="L43" s="3">
+        <v>4.83</v>
+      </c>
+      <c r="M43" s="3">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C44" s="3">
         <v>4.75</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D44" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E44" s="3">
         <v>2.83</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F44" s="3">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G44" s="3">
         <v>3.04</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H44" s="3">
         <v>1.21</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I44" s="3">
         <v>3.71</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J44" s="3">
         <v>4.1399999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
+      <c r="K44" s="17">
+        <v>4.75</v>
+      </c>
+      <c r="L44" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="M44" s="3">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C46" s="4">
         <v>3428</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D46" s="4">
         <v>3814</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E46" s="4">
         <v>5500</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F46" s="4">
         <v>11740</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G46" s="4">
         <v>8711</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H46" s="4">
         <v>4749</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I46" s="4">
         <v>6215</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J46" s="4">
         <v>7322</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
+      <c r="K46" s="15">
+        <v>3428</v>
+      </c>
+      <c r="L46" s="4">
+        <v>3428</v>
+      </c>
+      <c r="M46" s="4">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C47" s="4">
         <v>8834</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D47" s="4">
         <v>11104</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E47" s="4">
         <v>11292</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F47" s="4">
         <v>11466</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G47" s="4">
         <v>12008</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H47" s="4">
         <v>12672</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I47" s="4">
         <v>13813</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J47" s="4">
         <v>13661</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+      <c r="K47" s="15">
+        <v>8834</v>
+      </c>
+      <c r="L47" s="4">
+        <v>8834</v>
+      </c>
+      <c r="M47" s="4">
+        <v>8834</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C48" s="4">
         <v>1613</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D48" s="4">
         <v>3746</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E48" s="4">
         <v>3877</v>
       </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="15">
+        <v>1613</v>
+      </c>
+      <c r="L48" s="4">
+        <v>1613</v>
+      </c>
+      <c r="M48" s="4">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C49" s="4">
         <v>2468</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D49" s="4">
         <v>3184</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E49" s="4">
         <v>4723</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F49" s="4">
         <v>3535</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G49" s="4">
         <v>4088</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H49" s="4">
         <v>4406</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I49" s="4">
         <v>3959</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J49" s="4">
         <v>5817</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="6" t="s">
+      <c r="K49" s="15">
+        <v>2468</v>
+      </c>
+      <c r="L49" s="4">
+        <v>2468</v>
+      </c>
+      <c r="M49" s="4">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B50" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="4">
-        <f t="shared" ref="C33:J33" si="5">SUM(C29:C32)</f>
+      <c r="C50" s="4">
+        <f t="shared" ref="C50:J50" si="16">SUM(C46:C49)</f>
         <v>16343</v>
       </c>
-      <c r="D33" s="4">
-        <f t="shared" si="5"/>
+      <c r="D50" s="4">
+        <f t="shared" si="16"/>
         <v>21848</v>
       </c>
-      <c r="E33" s="4">
-        <f t="shared" si="5"/>
+      <c r="E50" s="4">
+        <f t="shared" si="16"/>
         <v>25392</v>
       </c>
-      <c r="F33" s="4">
-        <f t="shared" si="5"/>
+      <c r="F50" s="4">
+        <f t="shared" si="16"/>
         <v>26741</v>
       </c>
-      <c r="G33" s="4">
-        <f t="shared" si="5"/>
+      <c r="G50" s="4">
+        <f t="shared" si="16"/>
         <v>24807</v>
       </c>
-      <c r="H33" s="4">
-        <f t="shared" si="5"/>
+      <c r="H50" s="4">
+        <f t="shared" si="16"/>
         <v>21827</v>
       </c>
-      <c r="I33" s="4">
-        <f t="shared" si="5"/>
+      <c r="I50" s="4">
+        <f t="shared" si="16"/>
         <v>23987</v>
       </c>
-      <c r="J33" s="4">
-        <f t="shared" si="5"/>
+      <c r="J50" s="4">
+        <f t="shared" si="16"/>
         <v>26800</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
+      <c r="K50" s="15">
+        <f t="shared" ref="K50:M50" si="17">SUM(K46:K49)</f>
+        <v>16343</v>
+      </c>
+      <c r="L50" s="4">
+        <f t="shared" si="17"/>
+        <v>16343</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="17"/>
+        <v>16343</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C51" s="4">
         <v>7087</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D51" s="4">
         <v>7837</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E51" s="4">
         <v>8933</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F51" s="4">
         <v>13340</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G51" s="4">
         <v>12806</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H51" s="4">
         <v>12560</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I51" s="4">
         <v>12920</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J51" s="4">
         <v>12541</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+      <c r="K51" s="15">
+        <v>7087</v>
+      </c>
+      <c r="L51" s="4">
+        <v>7087</v>
+      </c>
+      <c r="M51" s="4">
+        <v>7087</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C52" s="4">
         <v>6931</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D52" s="4">
         <v>7883</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E52" s="4">
         <v>6989</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F52" s="4">
         <v>7820</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G52" s="4">
         <v>8082</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H52" s="4">
         <v>7250</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I52" s="4">
         <v>9385</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J52" s="4">
         <v>8647</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
+      <c r="K52" s="15">
+        <v>6931</v>
+      </c>
+      <c r="L52" s="4">
+        <v>6931</v>
+      </c>
+      <c r="M52" s="4">
+        <v>6931</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
         <v>694</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F53" s="4">
         <v>447</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G53" s="4">
         <v>605</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H53" s="4">
         <v>490</v>
       </c>
-      <c r="I36" s="4">
-        <v>0</v>
-      </c>
-      <c r="J36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C54" s="4">
         <v>38470</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D54" s="4">
         <v>44437</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E54" s="4">
         <v>48322</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F54" s="4">
         <v>51995</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G54" s="4">
         <v>54047</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H54" s="4">
         <v>55485</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I54" s="4">
         <v>59686</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J54" s="4">
         <v>62548</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
+      <c r="K54" s="15">
+        <v>38470</v>
+      </c>
+      <c r="L54" s="4">
+        <v>38470</v>
+      </c>
+      <c r="M54" s="4">
+        <v>38470</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C55" s="4">
         <v>59364</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D55" s="4">
         <v>59365</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E55" s="4">
         <v>68725</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F55" s="4">
         <v>70669</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G55" s="4">
         <v>70189</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H55" s="4">
         <v>58494</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I55" s="4">
         <v>59268</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J55" s="4">
         <v>58209</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+      <c r="K55" s="15">
+        <v>59364</v>
+      </c>
+      <c r="L55" s="4">
+        <v>59364</v>
+      </c>
+      <c r="M55" s="4">
+        <v>59364</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C56" s="4">
         <v>36780</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D56" s="4">
         <v>66154</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E56" s="4">
         <v>59365</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F56" s="4">
         <v>59365</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G56" s="4">
         <v>59365</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H56" s="4">
         <v>9365</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I56" s="4">
         <v>59365</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J56" s="4">
         <v>59365</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
+      <c r="K56" s="15">
+        <v>36780</v>
+      </c>
+      <c r="L56" s="4">
+        <v>36780</v>
+      </c>
+      <c r="M56" s="4">
+        <v>36780</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C57" s="4">
         <v>18133</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D57" s="4">
         <v>38358</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E57" s="4">
         <v>36128</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F57" s="4">
         <v>35389</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G57" s="4">
         <v>33580</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H57" s="4">
         <v>29308</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I57" s="4">
         <v>27867</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J57" s="4">
         <v>25599</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
+      <c r="K57" s="15">
+        <v>18133</v>
+      </c>
+      <c r="L57" s="4">
+        <v>18133</v>
+      </c>
+      <c r="M57" s="4">
+        <v>18133</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C58" s="4">
         <v>4354</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D58" s="4">
         <v>5802</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E58" s="4">
         <v>886</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F58" s="4">
         <v>8103</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G58" s="4">
         <v>12424</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H58" s="4">
         <v>12497</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I58" s="4">
         <v>12333</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J58" s="4">
         <v>12501</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="6" t="s">
+      <c r="K58" s="15">
+        <v>4354</v>
+      </c>
+      <c r="L58" s="4">
+        <v>4354</v>
+      </c>
+      <c r="M58" s="4">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B59" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="4">
-        <f t="shared" ref="C42:J42" si="6">SUM(C34:C41)</f>
+      <c r="C59" s="4">
+        <f t="shared" ref="C59:J59" si="18">SUM(C51:C58)</f>
         <v>171119</v>
       </c>
-      <c r="D42" s="4">
-        <f t="shared" si="6"/>
+      <c r="D59" s="4">
+        <f t="shared" si="18"/>
         <v>229836</v>
       </c>
-      <c r="E42" s="4">
-        <f t="shared" si="6"/>
+      <c r="E59" s="4">
+        <f t="shared" si="18"/>
         <v>230042</v>
       </c>
-      <c r="F42" s="4">
-        <f t="shared" si="6"/>
+      <c r="F59" s="4">
+        <f t="shared" si="18"/>
         <v>247128</v>
       </c>
-      <c r="G42" s="4">
-        <f t="shared" si="6"/>
+      <c r="G59" s="4">
+        <f t="shared" si="18"/>
         <v>251098</v>
       </c>
-      <c r="H42" s="4">
-        <f t="shared" si="6"/>
+      <c r="H59" s="4">
+        <f t="shared" si="18"/>
         <v>185449</v>
       </c>
-      <c r="I42" s="4">
-        <f t="shared" si="6"/>
+      <c r="I59" s="4">
+        <f t="shared" si="18"/>
         <v>240824</v>
       </c>
-      <c r="J42" s="4">
-        <f t="shared" si="6"/>
+      <c r="J59" s="4">
+        <f t="shared" si="18"/>
         <v>239410</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="6" t="s">
+      <c r="K59" s="15">
+        <f t="shared" ref="K59:M59" si="19">SUM(K51:K58)</f>
+        <v>171119</v>
+      </c>
+      <c r="L59" s="4">
+        <f t="shared" si="19"/>
+        <v>171119</v>
+      </c>
+      <c r="M59" s="4">
+        <f t="shared" si="19"/>
+        <v>171119</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B60" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="4">
-        <f t="shared" ref="C43:J43" si="7">C42+C33</f>
+      <c r="C60" s="4">
+        <f t="shared" ref="C60:J60" si="20">C59+C50</f>
         <v>187462</v>
       </c>
-      <c r="D43" s="4">
-        <f t="shared" si="7"/>
+      <c r="D60" s="4">
+        <f t="shared" si="20"/>
         <v>251684</v>
       </c>
-      <c r="E43" s="4">
-        <f t="shared" si="7"/>
+      <c r="E60" s="4">
+        <f t="shared" si="20"/>
         <v>255434</v>
       </c>
-      <c r="F43" s="4">
-        <f t="shared" si="7"/>
+      <c r="F60" s="4">
+        <f t="shared" si="20"/>
         <v>273869</v>
       </c>
-      <c r="G43" s="4">
-        <f t="shared" si="7"/>
+      <c r="G60" s="4">
+        <f t="shared" si="20"/>
         <v>275905</v>
       </c>
-      <c r="H43" s="4">
-        <f t="shared" si="7"/>
+      <c r="H60" s="4">
+        <f t="shared" si="20"/>
         <v>207276</v>
       </c>
-      <c r="I43" s="4">
-        <f t="shared" si="7"/>
+      <c r="I60" s="4">
+        <f t="shared" si="20"/>
         <v>264811</v>
       </c>
-      <c r="J43" s="4">
-        <f t="shared" si="7"/>
+      <c r="J60" s="4">
+        <f t="shared" si="20"/>
         <v>266210</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
+      <c r="K60" s="15">
+        <f t="shared" ref="K60:M60" si="21">K59+K50</f>
+        <v>187462</v>
+      </c>
+      <c r="L60" s="4">
+        <f t="shared" si="21"/>
+        <v>187462</v>
+      </c>
+      <c r="M60" s="4">
+        <f t="shared" si="21"/>
+        <v>187462</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C61" s="4">
         <v>6908</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D61" s="4">
         <v>8494</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E61" s="4">
         <v>10826</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F61" s="4">
         <v>11364</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G61" s="4">
         <v>12455</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H61" s="4">
         <v>12544</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I61" s="4">
         <v>12437</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J61" s="4">
         <v>11321</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
+      <c r="K61" s="15">
+        <v>6908</v>
+      </c>
+      <c r="L61" s="4">
+        <v>6908</v>
+      </c>
+      <c r="M61" s="4">
+        <v>6908</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C62" s="4">
         <v>1644</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D62" s="4">
         <v>1808</v>
       </c>
-      <c r="E45" s="4">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="15">
+        <v>1644</v>
+      </c>
+      <c r="L62" s="4">
+        <v>1644</v>
+      </c>
+      <c r="M62" s="4">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C63" s="4">
         <v>1687</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D63" s="4">
         <v>2182</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E63" s="4">
         <v>1730</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F63" s="4">
         <v>1706</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G63" s="4">
         <v>1822</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H63" s="4">
         <v>1770</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I63" s="4">
         <v>3242</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J63" s="4">
         <v>3507</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
+      <c r="K63" s="15">
+        <v>1687</v>
+      </c>
+      <c r="L63" s="4">
+        <v>1687</v>
+      </c>
+      <c r="M63" s="4">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C64" s="4">
         <v>6620</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D64" s="4">
         <v>10721</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E64" s="4">
         <v>2768</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F64" s="4">
         <v>2963</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G64" s="4">
         <v>3040</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H64" s="4">
         <v>2380</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I64" s="4">
         <v>13284</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J64" s="4">
         <v>10679</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
+      <c r="K64" s="15">
+        <v>6620</v>
+      </c>
+      <c r="L64" s="4">
+        <v>6620</v>
+      </c>
+      <c r="M64" s="4">
+        <v>6620</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C65" s="4">
         <v>5134</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D65" s="4">
         <v>4398</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E65" s="4">
         <v>10516</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F65" s="4">
         <v>9617</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G65" s="4">
         <v>9899</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H65" s="4">
         <v>9450</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I65" s="4">
         <v>2069</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J65" s="4">
         <v>4907</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
+      <c r="K65" s="15">
+        <v>5134</v>
+      </c>
+      <c r="L65" s="4">
+        <v>5134</v>
+      </c>
+      <c r="M65" s="4">
+        <v>5134</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="4">
-        <v>0</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
         <v>4452</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F66" s="4">
         <v>3146</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G66" s="4">
         <v>2132</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H66" s="4">
         <v>1743</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I66" s="4">
         <v>9167</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J66" s="4">
         <v>9167</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="6" t="s">
+      <c r="K66" s="15">
+        <v>0</v>
+      </c>
+      <c r="L66" s="4">
+        <v>0</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B67" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="4">
-        <f t="shared" ref="C50:J50" si="8">SUM(C44:C49)</f>
+      <c r="C67" s="4">
+        <f t="shared" ref="C67:J67" si="22">SUM(C61:C66)</f>
         <v>21993</v>
       </c>
-      <c r="D50" s="4">
-        <f t="shared" si="8"/>
+      <c r="D67" s="4">
+        <f t="shared" si="22"/>
         <v>27603</v>
       </c>
-      <c r="E50" s="4">
-        <f t="shared" si="8"/>
+      <c r="E67" s="4">
+        <f t="shared" si="22"/>
         <v>30292</v>
       </c>
-      <c r="F50" s="4">
-        <f t="shared" si="8"/>
+      <c r="F67" s="4">
+        <f t="shared" si="22"/>
         <v>28796</v>
       </c>
-      <c r="G50" s="4">
-        <f t="shared" si="8"/>
+      <c r="G67" s="4">
+        <f t="shared" si="22"/>
         <v>29348</v>
       </c>
-      <c r="H50" s="4">
-        <f t="shared" si="8"/>
+      <c r="H67" s="4">
+        <f t="shared" si="22"/>
         <v>27887</v>
       </c>
-      <c r="I50" s="4">
-        <f t="shared" si="8"/>
+      <c r="I67" s="4">
+        <f t="shared" si="22"/>
         <v>40199</v>
       </c>
-      <c r="J50" s="4">
-        <f t="shared" si="8"/>
+      <c r="J67" s="4">
+        <f t="shared" si="22"/>
         <v>39581</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
+      <c r="K67" s="15">
+        <f t="shared" ref="K67:M67" si="23">SUM(K61:K66)</f>
+        <v>21993</v>
+      </c>
+      <c r="L67" s="4">
+        <f t="shared" si="23"/>
+        <v>21993</v>
+      </c>
+      <c r="M67" s="4">
+        <f t="shared" si="23"/>
+        <v>21993</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C68" s="4">
         <v>59422</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D68" s="4">
         <v>107345</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E68" s="4">
         <v>97765</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F68" s="4">
         <v>100614</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G68" s="4">
         <v>92718</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H68" s="4">
         <v>93068</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I68" s="4">
         <v>95021</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J68" s="4">
         <v>94186</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
+      <c r="K68" s="15">
+        <v>59422</v>
+      </c>
+      <c r="L68" s="4">
+        <v>59422</v>
+      </c>
+      <c r="M68" s="4">
+        <v>59422</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P68" s="1">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C69" s="4">
         <v>24259</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D69" s="4">
         <v>27589</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E69" s="4">
         <v>5166</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F69" s="4">
         <v>5168</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G69" s="4">
         <v>5170</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H69" s="4">
         <v>5172</v>
       </c>
-      <c r="I52" s="4">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="15">
+        <v>24259</v>
+      </c>
+      <c r="L69" s="4">
+        <v>24259</v>
+      </c>
+      <c r="M69" s="4">
+        <v>24259</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P69" s="25">
+        <f>NPV(P68,C80:M80)</f>
+        <v>1592.6260645789944</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C70" s="4">
         <v>10972</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D70" s="4">
         <v>15329</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E70" s="4">
         <v>28180</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F70" s="4">
         <v>28051</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G70" s="4">
         <v>30041</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H70" s="4">
         <v>28714</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I70" s="4">
         <v>26003</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J70" s="4">
         <v>25227</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
+      <c r="K70" s="15">
+        <v>10972</v>
+      </c>
+      <c r="L70" s="4">
+        <v>10972</v>
+      </c>
+      <c r="M70" s="4">
+        <v>10972</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P70" s="25">
+        <f>P69/36.9</f>
+        <v>43.160597956070312</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C71" s="4">
         <v>1357</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D71" s="4">
         <v>1316</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E71" s="4">
         <v>16765</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F71" s="4">
         <v>18222</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G71" s="4">
         <v>20620</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H71" s="4">
         <v>20395</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I71" s="4">
         <v>20122</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J71" s="4">
         <v>209452</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+      <c r="K71" s="15">
+        <v>1357</v>
+      </c>
+      <c r="L71" s="4">
+        <v>1357</v>
+      </c>
+      <c r="M71" s="4">
+        <v>1357</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P71" s="1">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C72" s="4">
         <v>55</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D72" s="4">
         <v>54</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E72" s="4">
         <v>1372</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F72" s="4">
         <v>1280</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G72" s="4">
         <v>519</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H72" s="4">
         <v>411</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I72" s="4">
         <v>241</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J72" s="4">
         <v>237</v>
       </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="6" t="s">
+      <c r="K72" s="15">
+        <v>55</v>
+      </c>
+      <c r="L72" s="4">
+        <v>55</v>
+      </c>
+      <c r="M72" s="4">
+        <v>55</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P72" s="22">
+        <f>(P70/P71) -1</f>
+        <v>0.35725150805252559</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B73" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="4">
-        <f t="shared" ref="C56:J56" si="9">SUM(C51:C55)</f>
+      <c r="C73" s="4">
+        <f t="shared" ref="C73:J73" si="24">SUM(C68:C72)</f>
         <v>96065</v>
       </c>
-      <c r="D56" s="4">
-        <f t="shared" si="9"/>
+      <c r="D73" s="4">
+        <f t="shared" si="24"/>
         <v>151633</v>
       </c>
-      <c r="E56" s="4">
-        <f t="shared" si="9"/>
+      <c r="E73" s="4">
+        <f t="shared" si="24"/>
         <v>149248</v>
       </c>
-      <c r="F56" s="4">
-        <f t="shared" si="9"/>
+      <c r="F73" s="4">
+        <f t="shared" si="24"/>
         <v>153335</v>
       </c>
-      <c r="G56" s="4">
-        <f t="shared" si="9"/>
+      <c r="G73" s="4">
+        <f t="shared" si="24"/>
         <v>149068</v>
       </c>
-      <c r="H56" s="4">
-        <f t="shared" si="9"/>
+      <c r="H73" s="4">
+        <f t="shared" si="24"/>
         <v>147760</v>
       </c>
-      <c r="I56" s="4">
-        <f t="shared" si="9"/>
+      <c r="I73" s="4">
+        <f t="shared" si="24"/>
         <v>141387</v>
       </c>
-      <c r="J56" s="4">
-        <f t="shared" si="9"/>
+      <c r="J73" s="4">
+        <f t="shared" si="24"/>
         <v>329102</v>
       </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="6" t="s">
+      <c r="K73" s="15">
+        <f t="shared" ref="K73:M73" si="25">SUM(K68:K72)</f>
+        <v>96065</v>
+      </c>
+      <c r="L73" s="4">
+        <f t="shared" si="25"/>
+        <v>96065</v>
+      </c>
+      <c r="M73" s="4">
+        <f t="shared" si="25"/>
+        <v>96065</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B74" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="4">
-        <f t="shared" ref="C57:J57" si="10">C56+C50</f>
+      <c r="C74" s="4">
+        <f t="shared" ref="C74:J74" si="26">C73+C67</f>
         <v>118058</v>
       </c>
-      <c r="D57" s="4">
-        <f t="shared" si="10"/>
+      <c r="D74" s="4">
+        <f t="shared" si="26"/>
         <v>179236</v>
       </c>
-      <c r="E57" s="4">
-        <f t="shared" si="10"/>
+      <c r="E74" s="4">
+        <f t="shared" si="26"/>
         <v>179540</v>
       </c>
-      <c r="F57" s="4">
-        <f t="shared" si="10"/>
+      <c r="F74" s="4">
+        <f t="shared" si="26"/>
         <v>182131</v>
       </c>
-      <c r="G57" s="4">
-        <f t="shared" si="10"/>
+      <c r="G74" s="4">
+        <f t="shared" si="26"/>
         <v>178416</v>
       </c>
-      <c r="H57" s="4">
-        <f t="shared" si="10"/>
+      <c r="H74" s="4">
+        <f t="shared" si="26"/>
         <v>175647</v>
       </c>
-      <c r="I57" s="4">
-        <f t="shared" si="10"/>
+      <c r="I74" s="4">
+        <f t="shared" si="26"/>
         <v>181586</v>
       </c>
-      <c r="J57" s="4">
-        <f t="shared" si="10"/>
+      <c r="J74" s="4">
+        <f t="shared" si="26"/>
         <v>368683</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
+      <c r="K74" s="15">
+        <f t="shared" ref="K74:M74" si="27">K73+K67</f>
+        <v>118058</v>
+      </c>
+      <c r="L74" s="4">
+        <f t="shared" si="27"/>
+        <v>118058</v>
+      </c>
+      <c r="M74" s="4">
+        <f t="shared" si="27"/>
+        <v>118058</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C76" s="4">
         <v>21261</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D76" s="4">
         <v>24297</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E76" s="4">
         <v>25697</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F76" s="4">
         <v>24737</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G76" s="4">
         <v>29146</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H76" s="4">
         <v>26413</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I76" s="4">
         <v>28501</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J76" s="4">
         <v>27673</v>
       </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
+      <c r="K76" s="15">
+        <f>J76*1.043</f>
+        <v>28862.938999999998</v>
+      </c>
+      <c r="L76" s="24">
+        <f t="shared" ref="L76:M76" si="28">K76*1.043</f>
+        <v>30104.045376999995</v>
+      </c>
+      <c r="M76" s="24">
+        <f t="shared" si="28"/>
+        <v>31398.519328210994</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="22">
+        <v>0</v>
+      </c>
+      <c r="D77" s="22">
+        <f>(D76/C76)-1</f>
+        <v>0.14279666995907991</v>
+      </c>
+      <c r="E77" s="22">
+        <f t="shared" ref="E77:J77" si="29">(E76/D76)-1</f>
+        <v>5.7620282339383433E-2</v>
+      </c>
+      <c r="F77" s="22">
+        <f t="shared" si="29"/>
+        <v>-3.7358446511265853E-2</v>
+      </c>
+      <c r="G77" s="22">
+        <f t="shared" si="29"/>
+        <v>0.17823503254234541</v>
+      </c>
+      <c r="H77" s="22">
+        <f t="shared" si="29"/>
+        <v>-9.376929938928158E-2</v>
+      </c>
+      <c r="I77" s="22">
+        <f t="shared" si="29"/>
+        <v>7.9051981978571106E-2</v>
+      </c>
+      <c r="J77" s="22">
+        <f t="shared" si="29"/>
+        <v>-2.9051612224132439E-2</v>
+      </c>
+      <c r="K77" s="23">
+        <f>(K76/J76)-1</f>
+        <v>4.2999999999999927E-2</v>
+      </c>
+      <c r="L77" s="22">
+        <f t="shared" ref="L77" si="30">(L76/K76)-1</f>
+        <v>4.2999999999999927E-2</v>
+      </c>
+      <c r="M77" s="22">
+        <f t="shared" ref="M77" si="31">(M76/L76)-1</f>
+        <v>4.2999999999999927E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B78" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C78" s="4">
         <v>9550</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D78" s="4">
         <v>9774</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E78" s="4">
         <v>9953</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F78" s="4">
         <v>9179</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G78" s="4">
         <v>9174</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H78" s="4">
         <v>10626</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I78" s="4">
         <v>12242</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J78" s="4">
         <v>12181</v>
       </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="12" t="s">
+      <c r="K78" s="15">
+        <f>J78*1.0384</f>
+        <v>12648.750399999999</v>
+      </c>
+      <c r="L78" s="24">
+        <f>K78*1.0384</f>
+        <v>13134.462415359998</v>
+      </c>
+      <c r="M78" s="24">
+        <f>L78*1.0384</f>
+        <v>13638.825772109822</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="22">
+        <v>0</v>
+      </c>
+      <c r="D79" s="22">
+        <f>(D78/C78)-1</f>
+        <v>2.3455497382198987E-2</v>
+      </c>
+      <c r="E79" s="22">
+        <f t="shared" ref="E79:J79" si="32">(E78/D78)-1</f>
+        <v>1.8313894004501785E-2</v>
+      </c>
+      <c r="F79" s="22">
+        <f t="shared" si="32"/>
+        <v>-7.776549783984732E-2</v>
+      </c>
+      <c r="G79" s="22">
+        <f t="shared" si="32"/>
+        <v>-5.4472164723828875E-4</v>
+      </c>
+      <c r="H79" s="22">
+        <f t="shared" si="32"/>
+        <v>0.15827338129496393</v>
+      </c>
+      <c r="I79" s="22">
+        <f t="shared" si="32"/>
+        <v>0.15207980425371725</v>
+      </c>
+      <c r="J79" s="22">
+        <f t="shared" si="32"/>
+        <v>-4.9828459402058156E-3</v>
+      </c>
+      <c r="K79" s="23">
+        <f t="shared" ref="K79" si="33">(K78/J78)-1</f>
+        <v>3.839999999999999E-2</v>
+      </c>
+      <c r="L79" s="22">
+        <f t="shared" ref="L79" si="34">(L78/K78)-1</f>
+        <v>3.839999999999999E-2</v>
+      </c>
+      <c r="M79" s="22">
+        <f t="shared" ref="M79" si="35">(M78/L78)-1</f>
+        <v>3.839999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B80" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="13">
-        <f t="shared" ref="C61:J61" si="11">C59-C60</f>
+      <c r="C80" s="13">
+        <f t="shared" ref="C80:J80" si="36">C76-C78</f>
         <v>11711</v>
       </c>
-      <c r="D61" s="13">
-        <f t="shared" si="11"/>
+      <c r="D80" s="13">
+        <f>D76-D78</f>
         <v>14523</v>
       </c>
-      <c r="E61" s="13">
-        <f t="shared" si="11"/>
+      <c r="E80" s="13">
+        <f t="shared" si="36"/>
         <v>15744</v>
       </c>
-      <c r="F61" s="13">
-        <f t="shared" si="11"/>
+      <c r="F80" s="13">
+        <f t="shared" si="36"/>
         <v>15558</v>
       </c>
-      <c r="G61" s="13">
-        <f t="shared" si="11"/>
+      <c r="G80" s="13">
+        <f t="shared" si="36"/>
         <v>19972</v>
       </c>
-      <c r="H61" s="13">
-        <f t="shared" si="11"/>
+      <c r="H80" s="13">
+        <f t="shared" si="36"/>
         <v>15787</v>
       </c>
-      <c r="I61" s="13">
-        <f t="shared" si="11"/>
+      <c r="I80" s="13">
+        <f t="shared" si="36"/>
         <v>16259</v>
       </c>
-      <c r="J61" s="13">
-        <f t="shared" si="11"/>
+      <c r="J80" s="13">
+        <f t="shared" si="36"/>
         <v>15492</v>
+      </c>
+      <c r="K80" s="16">
+        <f t="shared" ref="K80:M80" si="37">K76-K78</f>
+        <v>16214.188599999999</v>
+      </c>
+      <c r="L80" s="13">
+        <f t="shared" si="37"/>
+        <v>16969.582961639997</v>
+      </c>
+      <c r="M80" s="13">
+        <f t="shared" si="37"/>
+        <v>17759.693556101171</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="22">
+        <v>0</v>
+      </c>
+      <c r="D81" s="22">
+        <f>(D80/C80)-1</f>
+        <v>0.24011613013406197</v>
+      </c>
+      <c r="E81" s="22">
+        <f t="shared" ref="E81:J81" si="38">(E80/D80)-1</f>
+        <v>8.4073538525098135E-2</v>
+      </c>
+      <c r="F81" s="22">
+        <f t="shared" si="38"/>
+        <v>-1.1814024390243927E-2</v>
+      </c>
+      <c r="G81" s="22">
+        <f t="shared" si="38"/>
+        <v>0.28371255945494278</v>
+      </c>
+      <c r="H81" s="22">
+        <f t="shared" si="38"/>
+        <v>-0.20954336070498703</v>
+      </c>
+      <c r="I81" s="22">
+        <f t="shared" si="38"/>
+        <v>2.9898017356052353E-2</v>
+      </c>
+      <c r="J81" s="22">
+        <f t="shared" si="38"/>
+        <v>-4.7173872931914662E-2</v>
+      </c>
+      <c r="K81" s="23">
+        <f t="shared" ref="K81" si="39">(K80/J80)-1</f>
+        <v>4.6616873224890165E-2</v>
+      </c>
+      <c r="L81" s="22">
+        <f t="shared" ref="L81" si="40">(L80/K80)-1</f>
+        <v>4.6588477553542118E-2</v>
+      </c>
+      <c r="M81" s="22">
+        <f t="shared" ref="M81" si="41">(M80/L80)-1</f>
+        <v>4.6560401410407737E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C17:J17" formulaRange="1"/>
+    <ignoredError sqref="C34:J34 J7 H7:I7 G7 G18:J18" formulaRange="1"/>
+    <ignoredError sqref="D80:M80 K78:M78" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
